--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang07/NKSX_LK_DƯ_3000LE_010724.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang07/NKSX_LK_DƯ_3000LE_010724.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2024\NhapKho\Thang07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C361B3-1CC4-4D78-8DCC-4E8767BF08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4A78C-99BA-44D3-8D28-BD84309B298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1398,9 +1398,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,69 +1416,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1509,22 +1443,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,27 +1548,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,6 +1611,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1668,6 +1659,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1675,9 +1687,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1692,23 +1701,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1734,26 +1746,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1764,19 +1770,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2734,57 +2728,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="99" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="99"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="99"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="99" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="99"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2811,29 +2805,29 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="22" t="s">
         <v>4</v>
       </c>
@@ -2842,86 +2836,86 @@
       <c r="A9" s="54">
         <v>1</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="52" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="52">
         <v>985</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="79" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="79"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>2</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="52" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="52">
         <v>985</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="79" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="79"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <v>3</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="52" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="52">
         <v>985</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="79"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <v>4</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="52" t="s">
         <v>92</v>
       </c>
@@ -2929,58 +2923,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="79"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="80" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="80" t="s">
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="71" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="71" t="s">
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="96"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -3015,25 +3009,25 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="74" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="74" t="s">
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3046,12 +3040,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3068,19 +3069,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3114,51 +3108,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="99" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="99"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="99"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="99"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3185,23 +3179,23 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="87" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="88"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="86"/>
       <c r="K8" s="22" t="s">
         <v>4</v>
       </c>
@@ -3210,46 +3204,46 @@
       <c r="A9" s="54">
         <v>1</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="100">
         <v>6</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="102" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>2</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="100">
         <v>4</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="102" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="54" t="s">
         <v>116</v>
       </c>
@@ -3258,65 +3252,65 @@
       <c r="A11" s="54">
         <v>3</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="100">
         <v>2</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102" t="s">
+      <c r="G11" s="102"/>
+      <c r="H11" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="80" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="80" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="71" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="71" t="s">
+      <c r="G14" s="96"/>
+      <c r="H14" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -3351,23 +3345,23 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="74" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="74" t="s">
+      <c r="G19" s="99"/>
+      <c r="H19" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3380,6 +3374,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3389,24 +3401,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3420,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3437,36 +3431,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="111" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="111" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="111"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="111" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="111"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:17" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
@@ -3487,8 +3481,8 @@
       <c r="D6" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
@@ -3524,17 +3518,17 @@
       <c r="A9" s="61">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>152</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>100</v>
       </c>
       <c r="E9" s="63"/>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="188" t="s">
         <v>180</v>
       </c>
       <c r="G9" s="61" t="s">
@@ -3545,34 +3539,34 @@
       <c r="A10" s="61">
         <v>2</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="66">
         <v>4076</v>
       </c>
       <c r="E10" s="63"/>
-      <c r="F10" s="106"/>
+      <c r="F10" s="188"/>
       <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
         <v>3</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="66">
         <v>114</v>
       </c>
       <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="Q11" s="2" t="s">
         <v>148</v>
@@ -3582,912 +3576,927 @@
       <c r="A12" s="61">
         <v>4</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="66">
         <v>1200</v>
       </c>
       <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61">
         <v>5</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="66">
         <v>155</v>
       </c>
       <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="61">
         <v>6</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="66">
         <v>2000</v>
       </c>
       <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="61">
         <v>7</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="66">
         <v>232</v>
       </c>
       <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61">
         <v>8</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>125</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <v>470</v>
       </c>
       <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="61">
         <v>9</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>38</v>
       </c>
       <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="61">
         <v>10</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>38</v>
       </c>
       <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="61">
         <v>11</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <v>76</v>
       </c>
       <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61">
         <v>12</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>158</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <v>76</v>
       </c>
       <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61">
         <v>13</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="66">
         <v>0</v>
       </c>
       <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61">
         <v>14</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>159</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <v>38</v>
       </c>
       <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="61">
         <v>15</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <v>235</v>
       </c>
       <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61">
         <v>16</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="66">
         <v>156</v>
       </c>
       <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="61">
         <v>17</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>160</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="66">
         <v>38</v>
       </c>
       <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <v>18</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="66">
         <v>0</v>
       </c>
       <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61">
         <v>19</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="66">
         <v>312</v>
       </c>
       <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61">
         <v>20</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="66">
         <v>7</v>
       </c>
       <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61">
         <v>21</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="66">
         <v>38</v>
       </c>
       <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61">
         <v>22</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>161</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="66">
         <v>343</v>
       </c>
       <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="61">
         <v>23</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="65" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="66">
         <v>494</v>
       </c>
       <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="61">
         <v>24</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="66">
         <v>40</v>
       </c>
       <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61">
         <v>25</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="66">
         <v>4076</v>
       </c>
       <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61">
         <v>26</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="66">
         <v>1076</v>
       </c>
       <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61">
         <v>27</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="65" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="66">
         <v>1114</v>
       </c>
       <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61">
         <v>28</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="65" t="s">
         <v>165</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="66">
         <v>1152</v>
       </c>
       <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="61">
         <v>29</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="65" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="66">
         <v>400</v>
       </c>
       <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61">
         <v>30</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="66">
         <v>304</v>
       </c>
       <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61">
         <v>31</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="66">
         <v>190</v>
       </c>
       <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61">
         <v>32</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="66">
         <v>1140</v>
       </c>
       <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="61">
         <v>33</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="65" t="s">
         <v>167</v>
       </c>
       <c r="C41" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="66">
         <v>70</v>
       </c>
       <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="61">
         <v>34</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="65" t="s">
         <v>168</v>
       </c>
       <c r="C42" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="67">
+      <c r="D42" s="66">
         <v>190</v>
       </c>
       <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61">
         <v>35</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="65" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="66">
         <v>38</v>
       </c>
       <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61">
         <v>36</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="65" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="66">
         <v>2038</v>
       </c>
       <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="59"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61">
         <v>37</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>170</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="66">
         <v>1000</v>
       </c>
       <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61">
         <v>38</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="66">
         <v>38</v>
       </c>
       <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61">
         <v>39</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="65" t="s">
         <v>171</v>
       </c>
       <c r="C47" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="67">
+      <c r="D47" s="66">
         <v>38</v>
       </c>
       <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="61">
         <v>40</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="65" t="s">
         <v>142</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="66">
         <v>34</v>
       </c>
       <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="59"/>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="61">
         <v>41</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="65" t="s">
         <v>144</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="67">
+      <c r="D49" s="66">
         <v>38</v>
       </c>
       <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="59"/>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61">
         <v>42</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="67" t="s">
         <v>172</v>
       </c>
       <c r="C50" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="66">
         <v>138</v>
       </c>
       <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="59"/>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="61">
         <v>43</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="68" t="s">
         <v>173</v>
       </c>
       <c r="C51" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="67">
+      <c r="D51" s="66">
         <v>88</v>
       </c>
       <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="59"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61">
         <v>44</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="65" t="s">
         <v>145</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="67">
+      <c r="D52" s="66">
         <v>38</v>
       </c>
       <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="59"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="61">
         <v>45</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="65" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="66">
         <v>436</v>
       </c>
       <c r="E53" s="63"/>
-      <c r="F53" s="64"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="59"/>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61">
         <v>47</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="65" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="66">
         <v>38</v>
       </c>
       <c r="E54" s="63"/>
-      <c r="F54" s="64"/>
+      <c r="F54" s="59"/>
       <c r="G54" s="59"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="61">
         <v>48</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="65" t="s">
         <v>175</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="66">
         <v>76</v>
       </c>
       <c r="E55" s="63"/>
-      <c r="F55" s="64"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="59"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="61">
         <v>49</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="65" t="s">
         <v>176</v>
       </c>
       <c r="C56" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="66">
         <v>38</v>
       </c>
       <c r="E56" s="63"/>
-      <c r="F56" s="64"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="59"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="61">
         <v>50</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="69" t="s">
         <v>177</v>
       </c>
       <c r="C57" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="66">
         <v>38</v>
       </c>
       <c r="E57" s="63"/>
-      <c r="F57" s="64"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="59"/>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="61">
         <v>51</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="69" t="s">
         <v>178</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="67">
+      <c r="D58" s="66">
         <v>38</v>
       </c>
       <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="59"/>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="115" t="s">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115" t="s">
+      <c r="B59" s="106"/>
+      <c r="C59" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="115"/>
-      <c r="E59" s="65" t="s">
+      <c r="D59" s="106"/>
+      <c r="E59" s="64" t="s">
         <v>181</v>
       </c>
       <c r="F59" s="51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="116" t="s">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116" t="s">
+      <c r="B60" s="107"/>
+      <c r="C60" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="116"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="55" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
       <c r="F61" s="48"/>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
       <c r="E62" s="49"/>
       <c r="F62" s="48"/>
-    </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
       <c r="E63" s="49"/>
       <c r="F63" s="48"/>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="50"/>
       <c r="D64" s="55"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="49"/>
       <c r="F65" s="48"/>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="116" t="s">
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116" t="s">
+      <c r="B66" s="107"/>
+      <c r="C66" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="116"/>
+      <c r="D66" s="107"/>
       <c r="E66" s="55" t="s">
         <v>179</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C72" s="113" t="s">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+    </row>
+    <row r="69" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C72" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+    </row>
+    <row r="73" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F79" s="55" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C2:D4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="A59:B59"/>
@@ -4497,13 +4506,6 @@
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C2:D4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4536,99 +4538,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="120" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="99" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="99"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="99" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="99" t="s">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="83" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="78"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>1</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="56" t="s">
         <v>120</v>
       </c>
@@ -4654,63 +4656,70 @@
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117" t="s">
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="117"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="140"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138" t="s">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -4727,13 +4736,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -4763,42 +4765,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="144" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="140"/>
       <c r="F5" s="20" t="s">
         <v>45</v>
       </c>
@@ -5037,32 +5039,32 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="153" t="s">
+      <c r="E37" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="153"/>
+      <c r="F37" s="150"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="141" t="s">
+      <c r="B38" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="141"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="141" t="s">
+      <c r="E38" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="141"/>
+      <c r="F38" s="138"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="142"/>
+      <c r="C39" s="139"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="142" t="s">
+      <c r="E39" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="142"/>
+      <c r="F39" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5106,78 +5108,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="164" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="167"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="165" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="165" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="166"/>
-      <c r="L4" s="167"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -5269,58 +5271,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="157" t="s">
+      <c r="E21" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="157" t="s">
+      <c r="F21" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157" t="s">
+      <c r="G21" s="151"/>
+      <c r="H21" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="157" t="s">
+      <c r="I21" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="157" t="s">
+      <c r="J21" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="155" t="s">
+      <c r="K21" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="154" t="s">
+      <c r="L21" s="158" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="157"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="151"/>
       <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="100"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
@@ -5365,45 +5367,45 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="141"/>
-      <c r="H27" s="141" t="s">
+      <c r="F27" s="138"/>
+      <c r="H27" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142" t="s">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="142"/>
-      <c r="I28" s="142" t="s">
+      <c r="F28" s="139"/>
+      <c r="I28" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="142"/>
+      <c r="J28" s="139"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5437,74 +5439,74 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5512,22 +5514,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5544,6 +5530,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5576,62 +5578,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="173" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="165" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="157"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="165" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="167"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="165" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="167"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5645,12 +5647,12 @@
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -5680,10 +5682,10 @@
       <c r="I7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="169" t="s">
+      <c r="J7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="170"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -5697,8 +5699,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -5712,8 +5714,8 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -5727,8 +5729,8 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="169"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -5742,8 +5744,8 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -5757,8 +5759,8 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -5772,14 +5774,14 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="169"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="172"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -5787,35 +5789,44 @@
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176" t="s">
+      <c r="F16" s="165"/>
+      <c r="G16" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176" t="s">
+      <c r="H16" s="165"/>
+      <c r="I16" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -5827,15 +5838,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -5875,48 +5877,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="165" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="157"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="165" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="157"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="165" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="167"/>
+      <c r="J4" s="157"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5962,11 +5964,11 @@
       <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -5976,174 +5978,174 @@
       <c r="G8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="181"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="183"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="185"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="183"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="185"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="183"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="185"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="183"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="185"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="183"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="185"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="183"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="183"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="185"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="183"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="183"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="183"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="185"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>11</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6158,42 +6160,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81" t="s">
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -6203,9 +6205,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -6215,9 +6217,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -6227,9 +6229,9 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -6237,6 +6239,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -6244,38 +6278,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
